--- a/biology/Botanique/Pityosporites/Pityosporites.xlsx
+++ b/biology/Botanique/Pityosporites/Pityosporites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pityosporites est un genre fossile de plantes de la famille des Pinaceae, découvert dans les gisements fossiles de pollens.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de microfossiles connus seulement à partir de pollens. Ce genre a été proposé par Albert Charles Seward pour les microspores pourvues d'ailes semblables à celles du genre Pinus (les Pins)[1]. P. westphalensis est décrite comme produisant des grains non associés à des fructifications mâles ou à des sporanges. D'un point de vue morphologique, le genre peut être rattaché aux Conifères, ce qui indique l'existence, à la fin du Carbonifère, d'un groupe de conifères qui étaient très probablement les premiers représentants des Abietineae[2]. Une relation avec une autre famille, les Podocarpineae, n'est pas exclue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de microfossiles connus seulement à partir de pollens. Ce genre a été proposé par Albert Charles Seward pour les microspores pourvues d'ailes semblables à celles du genre Pinus (les Pins). P. westphalensis est décrite comme produisant des grains non associés à des fructifications mâles ou à des sporanges. D'un point de vue morphologique, le genre peut être rattaché aux Conifères, ce qui indique l'existence, à la fin du Carbonifère, d'un groupe de conifères qui étaient très probablement les premiers représentants des Abietineae. Une relation avec une autre famille, les Podocarpineae, n'est pas exclue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre regroupe plus de 200 espèces décrites, les plus anciennes datant du Paléozoïque et les plus récentes du Quaternaire[3]. Des fossiles se trouvent sur tous les continents. Par exemple, l'espèce type Pityosporites antarcticus est décrite de l'Antarctique[4], Pityosporites ellipticus a été collectée en Australie[5], et Pityosporites westphalensis, datant du Carbonifère, a été décrite d'un bassin houiller du Pays de Galles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre regroupe plus de 200 espèces décrites, les plus anciennes datant du Paléozoïque et les plus récentes du Quaternaire. Des fossiles se trouvent sur tous les continents. Par exemple, l'espèce type Pityosporites antarcticus est décrite de l'Antarctique, Pityosporites ellipticus a été collectée en Australie, et Pityosporites westphalensis, datant du Carbonifère, a été décrite d'un bassin houiller du Pays de Galles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1914 par le botaniste anglais Albert Charles Seward, pour l'espèce type Pityosporites antarcticus[4]. Une photo des pollens de cette espèce est visible dans son ouvrage Fossil plants[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1914 par le botaniste anglais Albert Charles Seward, pour l'espèce type Pityosporites antarcticus. Une photo des pollens de cette espèce est visible dans son ouvrage Fossil plants.
 </t>
         </is>
       </c>
@@ -604,13 +622,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database                   (27 juin 2022)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database                   (27 juin 2022) :
 †Pityosporites nipanica Rao, 1942
 †Pityosporites potoniaei Lakhanpal et al., 1959
 †Pityosporites sewardii Virkki, 1946
-Selon la commission de paléobotanique de l'Académie des sciences de Russie[3] :
+Selon la commission de paléobotanique de l'Académie des sciences de Russie :
 †Pityosporites aberrant
 †Pityosporites absolutus
 †Pityosporites acutus
